--- a/Stocks/ACC.xlsx
+++ b/Stocks/ACC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1595.6666666666667</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1745.6660467326769</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1715.1680218203019</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>78.54497280791297</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>61.5</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>62.5</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.98399999999999999</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>UP</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1700.4063076350153</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>28.046808739934932</v>
       </c>
       <c r="Y67">
         <v>25.795548414641726</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>UP</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1784.4</v>
+      </c>
+      <c r="D83">
+        <v>1831.9</v>
+      </c>
+      <c r="E83">
+        <v>1781.95</v>
+      </c>
+      <c r="F83">
+        <v>1812.1</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1808.6500000000003</v>
+      </c>
+      <c r="H83">
+        <v>1799.1078310554008</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1812.7190856716675</v>
+      </c>
+      <c r="K83">
+        <v>1775.2481029738085</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>60.31209869479396</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>30.149999999999864</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>49.950000000000045</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.60360360360360032</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1789.8887051975753</v>
+      </c>
+      <c r="W83">
+        <v>1767.4280148135374</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>22.460690384037889</v>
+      </c>
+      <c r="Y83">
+        <v>26.272595356334953</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1800</v>
+      </c>
+      <c r="D84">
+        <v>1816.7</v>
+      </c>
+      <c r="E84">
+        <v>1786.05</v>
+      </c>
+      <c r="F84">
+        <v>1799.2</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1800.6499999999999</v>
+      </c>
+      <c r="H84">
+        <v>1799.8789155277004</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1813.6037333001859</v>
+      </c>
+      <c r="K84">
+        <v>1777.6485245351844</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>52.949645589539344</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>13.150000000000091</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>30.650000000000091</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.42903752039151882</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1791.321212090256</v>
+      </c>
+      <c r="W84">
+        <v>1769.7814951977198</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>21.539716892536262</v>
+      </c>
+      <c r="Y84">
+        <v>25.326019663575217</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1819</v>
+      </c>
+      <c r="D85">
+        <v>1830</v>
+      </c>
+      <c r="E85">
+        <v>1806.1</v>
+      </c>
+      <c r="F85">
+        <v>1810</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1815.3666666666668</v>
+      </c>
+      <c r="H85">
+        <v>1807.6227910971836</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1817.2473481223669</v>
+      </c>
+      <c r="K85">
+        <v>1783.9710746384767</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>58.279459924514107</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>3.9000000000000909</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>23.900000000000091</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.16317991631799481</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1794.1948717686782</v>
+      </c>
+      <c r="W85">
+        <v>1772.7606437015925</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>21.434228067085769</v>
+      </c>
+      <c r="Y85">
+        <v>24.547661344277326</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1814</v>
+      </c>
+      <c r="D86">
+        <v>1817.55</v>
+      </c>
+      <c r="E86">
+        <v>1793.5</v>
+      </c>
+      <c r="F86">
+        <v>1805</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1805.3500000000001</v>
+      </c>
+      <c r="H86">
+        <v>1806.4863955485919</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>1817.3146040951742</v>
+      </c>
+      <c r="K86">
+        <v>1786.088613607704</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>54.693998009318648</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>11.5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>24.049999999999955</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.47817047817047909</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1795.8571991888816</v>
+      </c>
+      <c r="W86">
+        <v>1775.1487441681411</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>20.70845502074053</v>
+      </c>
+      <c r="Y86">
+        <v>23.779820079569966</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1794</v>
+      </c>
+      <c r="D87">
+        <v>1826</v>
+      </c>
+      <c r="E87">
+        <v>1794</v>
+      </c>
+      <c r="F87">
+        <v>1819.3</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1813.1000000000001</v>
+      </c>
+      <c r="H87">
+        <v>1809.793197774296</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1819.2446920740244</v>
+      </c>
+      <c r="K87">
+        <v>1787.8466994726587</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>62.862128243480221</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>25.299999999999955</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.79062499999999858</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1799.4637839290538</v>
+      </c>
+      <c r="W87">
+        <v>1778.4192075630936</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>21.044576365960211</v>
+      </c>
+      <c r="Y87">
+        <v>23.232771336848014</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1823.7</v>
+      </c>
+      <c r="D88">
+        <v>1823.7</v>
+      </c>
+      <c r="E88">
+        <v>1765.4</v>
+      </c>
+      <c r="F88">
+        <v>1772.4</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1787.1666666666667</v>
+      </c>
+      <c r="H88">
+        <v>1798.4799322204813</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1820.2347605020191</v>
+      </c>
+      <c r="K88">
+        <v>1782.8585440342902</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>36.145983839343529</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>58.299999999999955</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.12006861063464846</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V88">
+        <v>1795.3001248630455</v>
+      </c>
+      <c r="W88">
+        <v>1777.9733403361977</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>17.32678452684786</v>
+      </c>
+      <c r="Y88">
+        <v>22.051573974847983</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1772.4</v>
+      </c>
+      <c r="D89">
+        <v>1810.55</v>
+      </c>
+      <c r="E89">
+        <v>1758.45</v>
+      </c>
+      <c r="F89">
+        <v>1807.85</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1792.2833333333335</v>
+      </c>
+      <c r="H89">
+        <v>1795.3816327769073</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1818.0825915015703</v>
+      </c>
+      <c r="K89">
+        <v>1777.4344231377813</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>54.440383770219704</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>49.399999999999864</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>52.099999999999909</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.94817658349328116</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1797.2308748841153</v>
+      </c>
+      <c r="W89">
+        <v>1780.1864262372201</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>17.044448646895262</v>
+      </c>
+      <c r="Y89">
+        <v>21.050148909257437</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1799</v>
+      </c>
+      <c r="D90">
+        <v>1816</v>
+      </c>
+      <c r="E90">
+        <v>1792.6</v>
+      </c>
+      <c r="F90">
+        <v>1802.35</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1803.6499999999999</v>
+      </c>
+      <c r="H90">
+        <v>1799.5158163884535</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1817.6197933901103</v>
+      </c>
+      <c r="K90">
+        <v>1780.8045513293855</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>51.574732128093856</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>9.75</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>23.400000000000091</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.41666666666666502</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1798.0184325942514</v>
+      </c>
+      <c r="W90">
+        <v>1781.8281724418705</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>16.190260152380915</v>
+      </c>
+      <c r="Y90">
+        <v>20.078171157882132</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1806.8</v>
+      </c>
+      <c r="D91">
+        <v>1812.95</v>
+      </c>
+      <c r="E91">
+        <v>1782.5</v>
+      </c>
+      <c r="F91">
+        <v>1789</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1794.8166666666666</v>
+      </c>
+      <c r="H91">
+        <v>1797.16624152756</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>1816.5820615256414</v>
+      </c>
+      <c r="K91">
+        <v>1781.1813177006331</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>44.472112377886539</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>30.450000000000045</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.2134646962233166</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1796.630981425905</v>
+      </c>
+      <c r="W91">
+        <v>1782.3594189276578</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>14.271562498247249</v>
+      </c>
+      <c r="Y91">
+        <v>18.916849425955157</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1793.4</v>
+      </c>
+      <c r="D92">
+        <v>1803.2</v>
+      </c>
+      <c r="E92">
+        <v>1781.25</v>
+      </c>
+      <c r="F92">
+        <v>1794</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1792.8166666666666</v>
+      </c>
+      <c r="H92">
+        <v>1794.9914540971133</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1813.6082700754989</v>
+      </c>
+      <c r="K92">
+        <v>1781.1965804338258</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>47.835343311468961</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>12.75</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>21.950000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.58086560364464568</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1796.2262150526888</v>
+      </c>
+      <c r="W92">
+        <v>1783.2216841922757</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>13.00453086041307</v>
+      </c>
+      <c r="Y92">
+        <v>17.734385712846738</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1803.35</v>
+      </c>
+      <c r="D93">
+        <v>1810</v>
+      </c>
+      <c r="E93">
+        <v>1792.5</v>
+      </c>
+      <c r="F93">
+        <v>1796</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1799.5</v>
+      </c>
+      <c r="H93">
+        <v>1797.2457270485565</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>1812.8064322809437</v>
+      </c>
+      <c r="K93">
+        <v>1783.7084514485312</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>49.368670621985309</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>17.5</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1796.1914127368905</v>
+      </c>
+      <c r="W93">
+        <v>1784.1682261039589</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>12.023186632931584</v>
+      </c>
+      <c r="Y93">
+        <v>16.592145896863705</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1797.55</v>
+      </c>
+      <c r="D94">
+        <v>1857.6</v>
+      </c>
+      <c r="E94">
+        <v>1797</v>
+      </c>
+      <c r="F94">
+        <v>1848.5</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1834.3666666666668</v>
+      </c>
+      <c r="H94">
+        <v>1815.8061968576117</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1822.760558440734</v>
+      </c>
+      <c r="K94">
+        <v>1786.6621289044131</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>74.22673409915781</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>51.5</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>60.599999999999909</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.84983498349835107</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>1804.2388877004457</v>
+      </c>
+      <c r="W94">
+        <v>1788.9335426888508</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>15.305345011594909</v>
+      </c>
+      <c r="Y94">
+        <v>16.334785719809947</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1848</v>
+      </c>
+      <c r="D95">
+        <v>1869.95</v>
+      </c>
+      <c r="E95">
+        <v>1838.2</v>
+      </c>
+      <c r="F95">
+        <v>1840.7</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1849.6166666666668</v>
+      </c>
+      <c r="H95">
+        <v>1832.7114317621392</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1833.2471010094598</v>
+      </c>
+      <c r="K95">
+        <v>1798.1149891478769</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>68.024362857370704</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>31.75</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>7.874015748031496E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1809.8482895926848</v>
+      </c>
+      <c r="W95">
+        <v>1792.7680950822694</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>17.080194510415367</v>
+      </c>
+      <c r="Y95">
+        <v>16.483867477931032</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1841</v>
+      </c>
+      <c r="D96">
+        <v>1855</v>
+      </c>
+      <c r="E96">
+        <v>1827</v>
+      </c>
+      <c r="F96">
+        <v>1849.4</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1843.8</v>
+      </c>
+      <c r="H96">
+        <v>1838.2557158810696</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1838.0810785629133</v>
+      </c>
+      <c r="K96">
+        <v>1804.5338804483488</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>71.360868828182006</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>22.400000000000091</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>28</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.80000000000000326</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>1815.9331681168871</v>
+      </c>
+      <c r="W96">
+        <v>1796.9630510021013</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>18.970117114785808</v>
+      </c>
+      <c r="Y96">
+        <v>16.981117405301987</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>1830.2</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>1837.7</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>1841</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>1844.3000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1840</v>
+      </c>
+      <c r="D97">
+        <v>1840</v>
+      </c>
+      <c r="E97">
+        <v>1811.05</v>
+      </c>
+      <c r="F97">
+        <v>1823.95</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1825</v>
+      </c>
+      <c r="H97">
+        <v>1831.6278579405348</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1838.5075055489326</v>
+      </c>
+      <c r="K97">
+        <v>1805.9819070153824</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>51.652765676903691</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>12.900000000000091</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>28.950000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.44559585492228221</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1817.1665268681352</v>
+      </c>
+      <c r="W97">
+        <v>1798.9620842612048</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>18.204442606930343</v>
+      </c>
+      <c r="Y97">
+        <v>17.225782445627658</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1827.2</v>
+      </c>
+      <c r="D98">
+        <v>1847.55</v>
+      </c>
+      <c r="E98">
+        <v>1822.05</v>
+      </c>
+      <c r="F98">
+        <v>1825</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1831.5333333333335</v>
+      </c>
+      <c r="H98">
+        <v>1831.580595636934</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>1840.5169487602809</v>
+      </c>
+      <c r="K98">
+        <v>1809.5525943452974</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>52.331697105801908</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.9500000000000455</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>25.5</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.1156862745098057</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1818.3716765807299</v>
+      </c>
+      <c r="W98">
+        <v>1800.8908187603749</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>17.480857820354913</v>
+      </c>
+      <c r="Y98">
+        <v>17.276797520573108</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1832.7</v>
+      </c>
+      <c r="D99">
+        <v>1833.8</v>
+      </c>
+      <c r="E99">
+        <v>1812</v>
+      </c>
+      <c r="F99">
+        <v>1819.7</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1821.8333333333333</v>
+      </c>
+      <c r="H99">
+        <v>1826.7069644851335</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>1839.0242934802184</v>
+      </c>
+      <c r="K99">
+        <v>1810.0964622685647</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>48.072321341578686</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>7.7000000000000455</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>21.799999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.35321100917431475</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1818.5760340298484</v>
+      </c>
+      <c r="W99">
+        <v>1802.2840914447916</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>16.291942585056859</v>
+      </c>
+      <c r="Y99">
+        <v>17.079826533469859</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1823</v>
+      </c>
+      <c r="D100">
+        <v>1824.9</v>
+      </c>
+      <c r="E100">
+        <v>1778.1</v>
+      </c>
+      <c r="F100">
+        <v>1787</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1796.6666666666667</v>
+      </c>
+      <c r="H100">
+        <v>1811.6868155759003</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1835.8855615957254</v>
+      </c>
+      <c r="K100">
+        <v>1802.9861373199947</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>29.533609324198967</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>8.9000000000000909</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>46.800000000000182</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.19017094017094138</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>1813.7181826406409</v>
+      </c>
+      <c r="W100">
+        <v>1801.1519365229551</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>12.566246117685751</v>
+      </c>
+      <c r="Y100">
+        <v>16.177110450313037</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1786.95</v>
+      </c>
+      <c r="D101">
+        <v>1789.3</v>
+      </c>
+      <c r="E101">
+        <v>1742.45</v>
+      </c>
+      <c r="F101">
+        <v>1746.25</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1759.3333333333333</v>
+      </c>
+      <c r="H101">
+        <v>1785.5100744546166</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1825.533214574453</v>
+      </c>
+      <c r="K101">
+        <v>1789.5336623599958</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>18.450167425575312</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>3.7999999999999545</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>46.849999999999909</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>8.1109925293489052E-2</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>1803.3384622343883</v>
+      </c>
+      <c r="W101">
+        <v>1797.0851264101436</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>6.2533358242446866</v>
+      </c>
+      <c r="Y101">
+        <v>14.192355525099368</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="35"/>
+        <v>1783.95</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="36"/>
+        <v>1771.4</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="37"/>
+        <v>1765.9</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="38"/>
+        <v>1760.3500000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1745.25</v>
+      </c>
+      <c r="D102">
+        <v>1746</v>
+      </c>
+      <c r="E102">
+        <v>1680</v>
+      </c>
+      <c r="F102">
+        <v>1682.05</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1702.6833333333334</v>
+      </c>
+      <c r="H102">
+        <v>1744.096703893975</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1807.8591668912413</v>
+      </c>
+      <c r="K102">
+        <v>1765.192848502219</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>10.609318991475739</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2.0499999999999545</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>66</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>3.1060606060605372E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1784.6786988137133</v>
+      </c>
+      <c r="W102">
+        <v>1788.5640059353182</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-3.8853071216049102</v>
+      </c>
+      <c r="Y102">
+        <v>10.576822995758512</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>1738.5</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>1720.8000000000002</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>1713</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>1705.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1688</v>
+      </c>
+      <c r="D103">
+        <v>1692</v>
+      </c>
+      <c r="E103">
+        <v>1625.1</v>
+      </c>
+      <c r="F103">
+        <v>1628</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1648.3666666666668</v>
+      </c>
+      <c r="H103">
+        <v>1696.231685280321</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1782.1126853598544</v>
+      </c>
+      <c r="K103">
+        <v>1734.0611043906147</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>7.3307629747716678</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>2.9000000000000909</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>66.900000000000091</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>4.3348281016443752E-2</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>1760.5742836116035</v>
+      </c>
+      <c r="W103">
+        <v>1776.6703758660353</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-16.096092254431824</v>
+      </c>
+      <c r="Y103">
+        <v>5.2422399457204447</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD103">
+        <f t="shared" si="35"/>
+        <v>1684.3500000000001</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="36"/>
+        <v>1666.45</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="37"/>
+        <v>1658.5500000000002</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="38"/>
+        <v>1650.65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1628</v>
+      </c>
+      <c r="D104">
+        <v>1648.9</v>
+      </c>
+      <c r="E104">
+        <v>1617.4</v>
+      </c>
+      <c r="F104">
+        <v>1630</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1632.1000000000001</v>
+      </c>
+      <c r="H104">
+        <v>1664.1658426401605</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1752.5098663909978</v>
+      </c>
+      <c r="K104">
+        <v>1708.1364145260336</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>8.636667252507312</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>12.599999999999909</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>31.5</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.39999999999999714</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1740.4859322867414</v>
+      </c>
+      <c r="W104">
+        <v>1765.8059035796623</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-25.319971292920854</v>
+      </c>
+      <c r="Y104">
+        <v>-0.87020230200781601</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1644</v>
+      </c>
+      <c r="D105">
+        <v>1663.65</v>
+      </c>
+      <c r="E105">
+        <v>1580</v>
+      </c>
+      <c r="F105">
+        <v>1590</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1611.2166666666665</v>
+      </c>
+      <c r="H105">
+        <v>1637.6912546534136</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1732.7632294152206</v>
+      </c>
+      <c r="K105">
+        <v>1679.6616557424707</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>6.3866383750539075</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>83.650000000000091</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.11954572624028678</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>1717.3342503964736</v>
+      </c>
+      <c r="W105">
+        <v>1752.7832440552429</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-35.448993658769268</v>
+      </c>
+      <c r="Y105">
+        <v>-7.7859605733601063</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>1654.1000000000001</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>1631.7</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>1621.8500000000001</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>1611.95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1596</v>
+      </c>
+      <c r="D106">
+        <v>1669.5</v>
+      </c>
+      <c r="E106">
+        <v>1590.05</v>
+      </c>
+      <c r="F106">
+        <v>1648.2</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1635.9166666666667</v>
+      </c>
+      <c r="H106">
+        <v>1636.80396066004</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>1718.704733989616</v>
+      </c>
+      <c r="K106">
+        <v>1659.7479544663661</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>36.482571725979653</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>58.150000000000091</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>79.450000000000045</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.73190685966016433</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1706.6982118739393</v>
+      </c>
+      <c r="W106">
+        <v>1745.0363370881878</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-38.338125214248521</v>
+      </c>
+      <c r="Y106">
+        <v>-13.896393501537791</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1660</v>
+      </c>
+      <c r="D107">
+        <v>1679</v>
+      </c>
+      <c r="E107">
+        <v>1643.25</v>
+      </c>
+      <c r="F107">
+        <v>1660</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1660.75</v>
+      </c>
+      <c r="H107">
+        <v>1648.77698033002</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>1709.8814597697012</v>
+      </c>
+      <c r="K107">
+        <v>1656.0817423627291</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>41.267928578769855</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>16.75</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>35.75</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.46853146853146854</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1699.513871585641</v>
+      </c>
+      <c r="W107">
+        <v>1738.7373491557294</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-39.223477570088335</v>
+      </c>
+      <c r="Y107">
+        <v>-18.961810315247899</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
